--- a/public_html/Test cases.xlsx
+++ b/public_html/Test cases.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
   <si>
     <t>BR#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>no-survey@g.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,12 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid=1
-vid=1
-score=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>record is consistent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,10 +471,6 @@
   <si>
     <t>1. submit a rating
 2. check score for each segment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>some ratings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,6 +545,84 @@
   <si>
     <t>no-exp@g.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>loginTest::testNewUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTest::testNoExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTest::testNoSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTest::testHasSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginTest::testUpdateExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateTest::testRateOnlyScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid=1
+vid=4
+score=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid=1
+vid=4
+score=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateTest::testRateDoneForTodayOnlyScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateTest::testRateDoneForTodayNoScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>save rating with familiar, tags, comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid=1
+vid=4
+score=5
+tags=tag1, tag2
+comment=saving comment
+familiar=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating is saved correctly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateTest::testRateWithMoreInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rateTest::testRateSumPerSeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoadSegmentAfterSomeRating</t>
   </si>
 </sst>
 </file>
@@ -936,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1104,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -1057,25 +1121,25 @@
         <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
@@ -1084,22 +1148,22 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1108,46 +1172,46 @@
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -1156,22 +1220,22 @@
         <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>18</v>
@@ -1180,108 +1244,109 @@
         <v>45</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
@@ -1290,53 +1355,53 @@
         <v>42</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1350,13 +1415,13 @@
         <v>51</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -1367,17 +1432,18 @@
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -1387,76 +1453,100 @@
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
